--- a/Iterable.xlsx
+++ b/Iterable.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8EEC35-4FA2-46DB-B929-BFFD29C994DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B207045-0BCB-4944-913A-1929E8DD2E83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,14 +219,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -241,7 +241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023860" y="5821680"/>
+          <a:off x="8023860" y="6042660"/>
           <a:ext cx="739140" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -293,7 +293,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -309,7 +309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7117080" y="4442460"/>
-          <a:ext cx="1104900" cy="350520"/>
+          <a:ext cx="1104900" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -352,15 +352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -375,8 +375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4785360" y="4343400"/>
-          <a:ext cx="960120" cy="510540"/>
+          <a:off x="4411980" y="4434840"/>
+          <a:ext cx="1341120" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -408,14 +408,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>java.io.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Serializable</a:t>
+            <a:t>java.io.Serializable</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -428,7 +421,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -449,8 +442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6065520" y="4404360"/>
-          <a:ext cx="807720" cy="350520"/>
+          <a:off x="6065520" y="4442460"/>
+          <a:ext cx="807720" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -501,7 +494,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -517,7 +510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9974580" y="3558540"/>
-          <a:ext cx="807720" cy="350520"/>
+          <a:ext cx="807720" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -627,15 +620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -650,7 +643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10713720" y="5829300"/>
+          <a:off x="10622280" y="6080760"/>
           <a:ext cx="952500" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -696,7 +689,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -717,8 +710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5783580" y="2819400"/>
-          <a:ext cx="807720" cy="350520"/>
+          <a:off x="5783580" y="2887980"/>
+          <a:ext cx="807720" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -763,7 +756,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -784,8 +777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5745480" y="1493520"/>
-          <a:ext cx="807720" cy="350520"/>
+          <a:off x="5745480" y="1562100"/>
+          <a:ext cx="807720" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -889,7 +882,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -913,8 +906,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="8202930" y="1383030"/>
-          <a:ext cx="563880" cy="3787140"/>
+          <a:off x="8220075" y="1400175"/>
+          <a:ext cx="529590" cy="3787140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1008,7 +1001,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -1032,8 +1025,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9624060" y="3733800"/>
-          <a:ext cx="350520" cy="864870"/>
+          <a:off x="9624060" y="3707130"/>
+          <a:ext cx="350520" cy="891540"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1129,13 +1122,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>560070</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1154,8 +1147,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="11894820" y="4057650"/>
-          <a:ext cx="426720" cy="68580"/>
+          <a:off x="11795760" y="4110990"/>
+          <a:ext cx="647700" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1195,9 +1188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1215,8 +1208,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="10856595" y="5495925"/>
-          <a:ext cx="403860" cy="262890"/>
+          <a:off x="10685145" y="5667375"/>
+          <a:ext cx="655320" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1258,7 +1251,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1276,8 +1269,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5680710" y="2312670"/>
-          <a:ext cx="975360" cy="38100"/>
+          <a:off x="5646420" y="2346960"/>
+          <a:ext cx="1043940" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1378,15 +1371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1401,7 +1394,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594360" y="5722620"/>
+          <a:off x="518160" y="5989320"/>
           <a:ext cx="952500" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -1452,8 +1445,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1469,7 +1462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11567160" y="3528060"/>
-          <a:ext cx="1013460" cy="350520"/>
+          <a:ext cx="1013460" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1512,15 +1505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1535,8 +1528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11635740" y="4305300"/>
-          <a:ext cx="1013460" cy="350520"/>
+          <a:off x="11658600" y="4480560"/>
+          <a:ext cx="1013460" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1581,7 +1574,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -1605,8 +1598,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="9065895" y="520065"/>
-          <a:ext cx="533400" cy="5482590"/>
+          <a:off x="9083040" y="537210"/>
+          <a:ext cx="499110" cy="5482590"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1772,15 +1765,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
+      <xdr:colOff>186690</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1798,8 +1791,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3564255" y="1483995"/>
-          <a:ext cx="708660" cy="3729990"/>
+          <a:off x="3634740" y="1409700"/>
+          <a:ext cx="529590" cy="3768090"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1892,15 +1885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1915,8 +1908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1744980" y="3703320"/>
-          <a:ext cx="617220" cy="350520"/>
+          <a:off x="1706880" y="3558540"/>
+          <a:ext cx="617220" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2021,15 +2014,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2047,12 +2040,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="320040" y="4381500"/>
-          <a:ext cx="30480" cy="609600"/>
+          <a:off x="358140" y="4564380"/>
+          <a:ext cx="60960" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -750000"/>
+            <a:gd name="adj1" fmla="val -375000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2079,15 +2072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2105,8 +2098,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1546860" y="4747260"/>
-          <a:ext cx="2122170" cy="1123950"/>
+          <a:off x="1470660" y="4747260"/>
+          <a:ext cx="2198370" cy="1390650"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2135,15 +2128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2161,8 +2154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1546860" y="4754880"/>
-          <a:ext cx="4922520" cy="1116330"/>
+          <a:off x="1470660" y="4754880"/>
+          <a:ext cx="4998720" cy="1383030"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2191,15 +2184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2217,8 +2210,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1546860" y="4853940"/>
-          <a:ext cx="3718560" cy="1017270"/>
+          <a:off x="1470660" y="4739640"/>
+          <a:ext cx="3611880" cy="1398270"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2247,15 +2240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2270,7 +2263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="350520" y="4206240"/>
+          <a:off x="419100" y="4389120"/>
           <a:ext cx="1097280" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2314,15 +2307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2337,7 +2330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="320040" y="4815840"/>
+          <a:off x="358140" y="5082540"/>
           <a:ext cx="1135380" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2381,15 +2374,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2407,8 +2400,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1158240" y="3619500"/>
-          <a:ext cx="327660" cy="845820"/>
+          <a:off x="988695" y="3670935"/>
+          <a:ext cx="697230" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2437,9 +2430,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2463,8 +2456,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2053590" y="4053840"/>
-          <a:ext cx="1139190" cy="544830"/>
+          <a:off x="2015490" y="3825240"/>
+          <a:ext cx="1177290" cy="773430"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2546,15 +2539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2572,12 +2565,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="887730" y="5166360"/>
-          <a:ext cx="659130" cy="704850"/>
+          <a:off x="925830" y="5433060"/>
+          <a:ext cx="544830" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -34682"/>
+            <a:gd name="adj1" fmla="val -41958"/>
             <a:gd name="adj2" fmla="val 60541"/>
           </a:avLst>
         </a:prstGeom>
@@ -2605,15 +2598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2631,8 +2624,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6345555" y="3773805"/>
-          <a:ext cx="967740" cy="3128010"/>
+          <a:off x="6086475" y="3735705"/>
+          <a:ext cx="1303020" cy="3310890"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2673,8 +2666,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2692,8 +2685,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6898005" y="4326255"/>
-          <a:ext cx="1066800" cy="1924050"/>
+          <a:off x="6787515" y="4436745"/>
+          <a:ext cx="1287780" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2729,13 +2722,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>354330</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2753,12 +2746,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7517130" y="4945380"/>
-          <a:ext cx="1028700" cy="723900"/>
+          <a:off x="7383780" y="5033010"/>
+          <a:ext cx="1295400" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50741"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2795,8 +2788,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2814,8 +2807,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8233410" y="4907280"/>
-          <a:ext cx="1074420" cy="754380"/>
+          <a:off x="8122920" y="5017770"/>
+          <a:ext cx="1295400" cy="754380"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2851,13 +2844,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2875,12 +2868,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8429625" y="3872865"/>
-          <a:ext cx="1912620" cy="1985010"/>
+          <a:off x="8292465" y="3956685"/>
+          <a:ext cx="2186940" cy="1985010"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 24104"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3140,15 +3133,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>560070</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3166,12 +3159,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="10930890" y="4914900"/>
-          <a:ext cx="1470660" cy="952500"/>
+          <a:off x="10835640" y="5048250"/>
+          <a:ext cx="1592580" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -14508"/>
+            <a:gd name="adj1" fmla="val -14354"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3209,9 +3202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3229,12 +3222,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="8143875" y="3080385"/>
-          <a:ext cx="1371600" cy="4720590"/>
+          <a:off x="7972425" y="3251835"/>
+          <a:ext cx="1623060" cy="4629150"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -16667"/>
+            <a:gd name="adj1" fmla="val -14085"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3266,15 +3259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3292,12 +3285,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="7591425" y="2527935"/>
-          <a:ext cx="1272540" cy="5924550"/>
+          <a:off x="7271385" y="2550795"/>
+          <a:ext cx="1638300" cy="6015990"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -17964"/>
+            <a:gd name="adj1" fmla="val -13953"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3360,7 +3353,7 @@
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 17456"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3394,11 +3387,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>354330</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -3418,12 +3411,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4044315" y="4821555"/>
-          <a:ext cx="1188720" cy="1253490"/>
+          <a:off x="3895725" y="4855845"/>
+          <a:ext cx="1303020" cy="1070610"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 25641"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3518,9 +3511,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -3544,12 +3537,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2038350" y="4069080"/>
-          <a:ext cx="1988820" cy="1958340"/>
+          <a:off x="1905000" y="3935730"/>
+          <a:ext cx="2217420" cy="1996440"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 31226"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3847,7 +3840,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
